--- a/data/test_folder/result.xlsx
+++ b/data/test_folder/result.xlsx
@@ -456,13 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>скважина</t>
+          <t>почва</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3255278247790357</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.4239732349627274</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>устойчивость почва, почва грунт, углеводород почва</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -470,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>пласт</t>
+          <t>загрязнение</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2447313502835197</v>
+        <v>0.2434697784934474</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>пластовый, продуктивный пласт</t>
+          <t>нефтяной загрязнение, источник загрязнение, ореол нефтяной загрязнение, ореол загрязнение</t>
         </is>
       </c>
     </row>
@@ -488,13 +492,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>система</t>
+          <t>нефть</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1615929489910321</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.2350742688902251</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>нефть нефтепродукт, добыча нефть, аккумуляция нефть</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,11 +514,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1615929489910321</v>
+        <v>0.1679101920644465</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>нефтяной газовый</t>
+          <t>нефтяной загрязнение, ореол нефтяной загрязнение, ореол нефтяной</t>
         </is>
       </c>
     </row>
@@ -520,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>высокий</t>
+          <t>углеводород</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1405156078182888</v>
+        <v>0.1595146824612242</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>бюджетный высокий, высокий профессиональный, высокий профессиональный образование, бюджетный высокий профессиональный</t>
+          <t>углеводородный, ароматический углеводород, техногенный углеводород, полициклический ароматический углеводород</t>
         </is>
       </c>
     </row>
@@ -538,13 +546,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>позволять</t>
+          <t>среда</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1334898274273744</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.1595146824612242</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>природный среда, окружающий среда</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -552,13 +564,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>месторождение</t>
+          <t>природный</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1288059738334314</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0.155316927659613</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>природный среда, природный техногенный</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -566,13 +582,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>пример</t>
+          <t>геохимический</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1135834496531168</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0.1469214180563907</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>эколого геохимический, ландшафтно геохимический, геохимический карта, эколого геохимический карта</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -580,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>состав</t>
+          <t>нефтепродукт</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1112415228561453</v>
+        <v>0.1217348892467237</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>составлять</t>
+          <t>нефть нефтепродукт</t>
         </is>
       </c>
     </row>
@@ -598,13 +618,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>являться</t>
+          <t>ландшафт</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1077286326606881</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.1175371344451126</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ландшафтно геохимический, ландшафтно, компонент ландшафт</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -612,15 +636,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>метод</t>
+          <t>техногенный</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1053867058637166</v>
+        <v>0.1133393796435014</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>методика</t>
+          <t>техногенный углеводород, техногенный поток, природный техногенный</t>
         </is>
       </c>
     </row>
@@ -630,13 +654,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>процесс</t>
+          <t>карта</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1053867058637166</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0.1091416248418902</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>геохимический карта, эколого геохимический карта</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -644,13 +672,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>основа</t>
+          <t>география</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1018738156682594</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0.1007461152386679</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>сера география, тот сера география, вму география</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -658,11 +690,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>давление</t>
+          <t>территория</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.09836092547280216</v>
+        <v>0.1007461152386679</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
@@ -672,13 +704,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>обработка</t>
+          <t>почвенный</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.09836092547280216</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0.09235060563544557</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>почвенный покров</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -686,17 +722,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>далее</t>
+          <t>поллютант</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.09718996207431643</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>проспа далее корп, ленинский проспа далее, проспа далее, далее корп</t>
-        </is>
-      </c>
+        <v>0.09235060563544557</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -704,15 +736,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>повышение</t>
+          <t>район</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.09601899867583069</v>
+        <v>0.08815285083383441</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>повышение нефтеотдача</t>
+          <t>район добыча, районирование</t>
         </is>
       </c>
     </row>
@@ -722,13 +754,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>условие</t>
+          <t>устойчивость</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.09016418168340198</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.08815285083383441</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>устойчивость почва</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -736,15 +772,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>раствор</t>
+          <t>сера</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0878222548864305</v>
+        <v>0.08395509603222324</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>буровой раствор</t>
+          <t>ун тот сера, сера география, тот сера, тот сера география</t>
         </is>
       </c>
     </row>
@@ -754,17 +790,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>кафедра</t>
+          <t>различный</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0878222548864305</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>аудитория кафедра, корп аудитория кафедра</t>
-        </is>
-      </c>
+        <v>0.08395509603222324</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -772,13 +804,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>исследование</t>
+          <t>углеводородный</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.08665129148794477</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.07975734123061208</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>углеводородный геохимический поле, углеводородный геохимический, углеводородный загрязнение</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -786,11 +822,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>эксплуатация</t>
+          <t>экологический</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.08430936469097329</v>
+        <v>0.07975734123061208</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
@@ -800,15 +836,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>комплекс</t>
+          <t>моск ун</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.08430936469097329</v>
+        <v>0.07555958642900093</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>комплексный</t>
+          <t>моск ун тот, вестн моск ун</t>
         </is>
       </c>
     </row>
@@ -818,13 +854,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>способ</t>
+          <t>ун тот</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.08196743789400181</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0.07555958642900093</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>моск ун тот, ун тот сера</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -832,11 +872,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>порода</t>
+          <t>моск ун тот</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0784545476985446</v>
+        <v>0.07555958642900093</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
@@ -846,13 +886,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>температура</t>
+          <t>тот</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.07259973070611589</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>0.07555958642900093</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ун тот, моск ун тот, ун тот сера, тот сера</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -860,13 +904,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>залежь</t>
+          <t>моск</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.07259973070611589</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>0.07555958642900093</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>моск ун, моск ун тот, вестн моск ун, вестн моск</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -874,11 +922,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>жидкость</t>
+          <t>нефть нефтепродукт</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.07259973070611589</v>
+        <v>0.07555958642900093</v>
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
@@ -888,13 +936,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>свойство</t>
+          <t>ун</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.07142876730763015</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>0.07555958642900093</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>моск ун, ун тот, моск ун тот, ун тот сера</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -902,11 +954,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>материал</t>
+          <t>зона</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.07025780390914441</v>
+        <v>0.0671640768257786</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
